--- a/misc files/Location data.xlsx
+++ b/misc files/Location data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="044237" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
